--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lama2-Itga7.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lama2-Itga7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itga7</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.72306883231591</v>
+        <v>1.969292666666667</v>
       </c>
       <c r="H2">
-        <v>1.72306883231591</v>
+        <v>5.907878</v>
       </c>
       <c r="I2">
-        <v>0.01826875689139362</v>
+        <v>0.01927739905292307</v>
       </c>
       <c r="J2">
-        <v>0.01826875689139362</v>
+        <v>0.02250741773403226</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.88440375340634</v>
+        <v>3.676435666666666</v>
       </c>
       <c r="N2">
-        <v>2.88440375340634</v>
+        <v>11.029307</v>
       </c>
       <c r="O2">
-        <v>0.0452549631030352</v>
+        <v>0.05596928005870617</v>
       </c>
       <c r="P2">
-        <v>0.0452549631030352</v>
+        <v>0.07888124434163156</v>
       </c>
       <c r="Q2">
-        <v>4.97002620730949</v>
+        <v>7.239977797838445</v>
       </c>
       <c r="R2">
-        <v>4.97002620730949</v>
+        <v>65.159800180546</v>
       </c>
       <c r="S2">
-        <v>0.0008267519190583385</v>
+        <v>0.001078942146396489</v>
       </c>
       <c r="T2">
-        <v>0.0008267519190583385</v>
+        <v>0.00177541311777737</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.72306883231591</v>
+        <v>1.969292666666667</v>
       </c>
       <c r="H3">
-        <v>1.72306883231591</v>
+        <v>5.907878</v>
       </c>
       <c r="I3">
-        <v>0.01826875689139362</v>
+        <v>0.01927739905292307</v>
       </c>
       <c r="J3">
-        <v>0.01826875689139362</v>
+        <v>0.02250741773403226</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.29197669643</v>
+        <v>3.794922333333334</v>
       </c>
       <c r="N3">
-        <v>3.29197669643</v>
+        <v>11.384767</v>
       </c>
       <c r="O3">
-        <v>0.05164959439435457</v>
+        <v>0.05777309604548284</v>
       </c>
       <c r="P3">
-        <v>0.05164959439435457</v>
+        <v>0.08142348268114613</v>
       </c>
       <c r="Q3">
-        <v>5.672302442328827</v>
+        <v>7.473312721602889</v>
       </c>
       <c r="R3">
-        <v>5.672302442328827</v>
+        <v>67.259814494426</v>
       </c>
       <c r="S3">
-        <v>0.0009435738835295505</v>
+        <v>0.001113715026991625</v>
       </c>
       <c r="T3">
-        <v>0.0009435738835295505</v>
+        <v>0.001832632338064297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.72306883231591</v>
+        <v>1.969292666666667</v>
       </c>
       <c r="H4">
-        <v>1.72306883231591</v>
+        <v>5.907878</v>
       </c>
       <c r="I4">
-        <v>0.01826875689139362</v>
+        <v>0.01927739905292307</v>
       </c>
       <c r="J4">
-        <v>0.01826875689139362</v>
+        <v>0.02250741773403226</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.342201462243654</v>
+        <v>0.477427</v>
       </c>
       <c r="N4">
-        <v>0.342201462243654</v>
+        <v>1.432281</v>
       </c>
       <c r="O4">
-        <v>0.005368982941224049</v>
+        <v>0.007268247806663079</v>
       </c>
       <c r="P4">
-        <v>0.005368982941224049</v>
+        <v>0.01024362704990227</v>
       </c>
       <c r="Q4">
-        <v>0.5896366739649699</v>
+        <v>0.9401934899686668</v>
       </c>
       <c r="R4">
-        <v>0.5896366739649699</v>
+        <v>8.461741409718002</v>
       </c>
       <c r="S4">
-        <v>9.808464410726165E-05</v>
+        <v>0.000140112913384577</v>
       </c>
       <c r="T4">
-        <v>9.808464410726165E-05</v>
+        <v>0.0002305575931237828</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.72306883231591</v>
+        <v>1.969292666666667</v>
       </c>
       <c r="H5">
-        <v>1.72306883231591</v>
+        <v>5.907878</v>
       </c>
       <c r="I5">
-        <v>0.01826875689139362</v>
+        <v>0.01927739905292307</v>
       </c>
       <c r="J5">
-        <v>0.01826875689139362</v>
+        <v>0.02250741773403226</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.208113116433968</v>
+        <v>0.4995396666666667</v>
       </c>
       <c r="N5">
-        <v>0.208113116433968</v>
+        <v>1.498619</v>
       </c>
       <c r="O5">
-        <v>0.00326519870678802</v>
+        <v>0.007604886373395734</v>
       </c>
       <c r="P5">
-        <v>0.00326519870678802</v>
+        <v>0.01071807426468513</v>
       </c>
       <c r="Q5">
-        <v>0.3585932245235022</v>
+        <v>0.9837398022757778</v>
       </c>
       <c r="R5">
-        <v>0.3585932245235022</v>
+        <v>8.853658220482</v>
       </c>
       <c r="S5">
-        <v>5.965112137640318E-05</v>
+        <v>0.0001466024293720865</v>
       </c>
       <c r="T5">
-        <v>5.965112137640318E-05</v>
+        <v>0.0002412361747796488</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.72306883231591</v>
+        <v>1.969292666666667</v>
       </c>
       <c r="H6">
-        <v>1.72306883231591</v>
+        <v>5.907878</v>
       </c>
       <c r="I6">
-        <v>0.01826875689139362</v>
+        <v>0.01927739905292307</v>
       </c>
       <c r="J6">
-        <v>0.01826875689139362</v>
+        <v>0.02250741773403226</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0100435660842</v>
+        <v>57.23834600000001</v>
       </c>
       <c r="N6">
-        <v>57.0100435660842</v>
+        <v>114.476692</v>
       </c>
       <c r="O6">
-        <v>0.8944612608545981</v>
+        <v>0.8713844897157522</v>
       </c>
       <c r="P6">
-        <v>0.8944612608545981</v>
+        <v>0.8187335716626348</v>
       </c>
       <c r="Q6">
-        <v>98.23222919769186</v>
+        <v>112.7190550299294</v>
       </c>
       <c r="R6">
-        <v>98.23222919769186</v>
+        <v>676.3143301795761</v>
       </c>
       <c r="S6">
-        <v>0.01634069532332207</v>
+        <v>0.0167980265367783</v>
       </c>
       <c r="T6">
-        <v>0.01634069532332207</v>
+        <v>0.01842757851028716</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.3333511289122</v>
+        <v>56.06511666666668</v>
       </c>
       <c r="H7">
-        <v>52.3333511289122</v>
+        <v>168.19535</v>
       </c>
       <c r="I7">
-        <v>0.5548619133230022</v>
+        <v>0.5488212317173891</v>
       </c>
       <c r="J7">
-        <v>0.5548619133230022</v>
+        <v>0.6407788047369568</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.88440375340634</v>
+        <v>3.676435666666666</v>
       </c>
       <c r="N7">
-        <v>2.88440375340634</v>
+        <v>11.029307</v>
       </c>
       <c r="O7">
-        <v>0.0452549631030352</v>
+        <v>0.05596928005870617</v>
       </c>
       <c r="P7">
-        <v>0.0452549631030352</v>
+        <v>0.07888124434163156</v>
       </c>
       <c r="Q7">
-        <v>150.9505144245663</v>
+        <v>206.1197945691611</v>
       </c>
       <c r="R7">
-        <v>150.9505144245663</v>
+        <v>1855.07815112245</v>
       </c>
       <c r="S7">
-        <v>0.02511025541471198</v>
+        <v>0.03071712922015462</v>
       </c>
       <c r="T7">
-        <v>0.02511025541471198</v>
+        <v>0.05054542946539451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.3333511289122</v>
+        <v>56.06511666666668</v>
       </c>
       <c r="H8">
-        <v>52.3333511289122</v>
+        <v>168.19535</v>
       </c>
       <c r="I8">
-        <v>0.5548619133230022</v>
+        <v>0.5488212317173891</v>
       </c>
       <c r="J8">
-        <v>0.5548619133230022</v>
+        <v>0.6407788047369568</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.29197669643</v>
+        <v>3.794922333333334</v>
       </c>
       <c r="N8">
-        <v>3.29197669643</v>
+        <v>11.384767</v>
       </c>
       <c r="O8">
-        <v>0.05164959439435457</v>
+        <v>0.05777309604548284</v>
       </c>
       <c r="P8">
-        <v>0.05164959439435457</v>
+        <v>0.08142348268114613</v>
       </c>
       <c r="Q8">
-        <v>172.2801723624676</v>
+        <v>212.7627633592723</v>
       </c>
       <c r="R8">
-        <v>172.2801723624676</v>
+        <v>1914.86487023345</v>
       </c>
       <c r="S8">
-        <v>0.02865839276800859</v>
+        <v>0.03170710173180891</v>
       </c>
       <c r="T8">
-        <v>0.02865839276800859</v>
+        <v>0.05217444190994512</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.3333511289122</v>
+        <v>56.06511666666668</v>
       </c>
       <c r="H9">
-        <v>52.3333511289122</v>
+        <v>168.19535</v>
       </c>
       <c r="I9">
-        <v>0.5548619133230022</v>
+        <v>0.5488212317173891</v>
       </c>
       <c r="J9">
-        <v>0.5548619133230022</v>
+        <v>0.6407788047369568</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.342201462243654</v>
+        <v>0.477427</v>
       </c>
       <c r="N9">
-        <v>0.342201462243654</v>
+        <v>1.432281</v>
       </c>
       <c r="O9">
-        <v>0.005368982941224049</v>
+        <v>0.007268247806663079</v>
       </c>
       <c r="P9">
-        <v>0.005368982941224049</v>
+        <v>0.01024362704990227</v>
       </c>
       <c r="Q9">
-        <v>17.90854928042434</v>
+        <v>26.76700045481667</v>
       </c>
       <c r="R9">
-        <v>17.90854928042434</v>
+        <v>240.9030040933501</v>
       </c>
       <c r="S9">
-        <v>0.002979044147366135</v>
+        <v>0.003988968713680042</v>
       </c>
       <c r="T9">
-        <v>0.002979044147366135</v>
+        <v>0.006563899097207533</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.3333511289122</v>
+        <v>56.06511666666668</v>
       </c>
       <c r="H10">
-        <v>52.3333511289122</v>
+        <v>168.19535</v>
       </c>
       <c r="I10">
-        <v>0.5548619133230022</v>
+        <v>0.5488212317173891</v>
       </c>
       <c r="J10">
-        <v>0.5548619133230022</v>
+        <v>0.6407788047369568</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.208113116433968</v>
+        <v>0.4995396666666667</v>
       </c>
       <c r="N10">
-        <v>0.208113116433968</v>
+        <v>1.498619</v>
       </c>
       <c r="O10">
-        <v>0.00326519870678802</v>
+        <v>0.007604886373395734</v>
       </c>
       <c r="P10">
-        <v>0.00326519870678802</v>
+        <v>0.01071807426468513</v>
       </c>
       <c r="Q10">
-        <v>10.89125679687104</v>
+        <v>28.00674969129445</v>
       </c>
       <c r="R10">
-        <v>10.89125679687104</v>
+        <v>252.06074722165</v>
       </c>
       <c r="S10">
-        <v>0.001811734401828193</v>
+        <v>0.004173723106517835</v>
       </c>
       <c r="T10">
-        <v>0.001811734401828193</v>
+        <v>0.006867914816406875</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>52.3333511289122</v>
+        <v>56.06511666666668</v>
       </c>
       <c r="H11">
-        <v>52.3333511289122</v>
+        <v>168.19535</v>
       </c>
       <c r="I11">
-        <v>0.5548619133230022</v>
+        <v>0.5488212317173891</v>
       </c>
       <c r="J11">
-        <v>0.5548619133230022</v>
+        <v>0.6407788047369568</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0100435660842</v>
+        <v>57.23834600000001</v>
       </c>
       <c r="N11">
-        <v>57.0100435660842</v>
+        <v>114.476692</v>
       </c>
       <c r="O11">
-        <v>0.8944612608545981</v>
+        <v>0.8713844897157522</v>
       </c>
       <c r="P11">
-        <v>0.8944612608545981</v>
+        <v>0.8187335716626348</v>
       </c>
       <c r="Q11">
-        <v>2983.526627818466</v>
+        <v>3209.074546297034</v>
       </c>
       <c r="R11">
-        <v>2983.526627818466</v>
+        <v>19254.4472777822</v>
       </c>
       <c r="S11">
-        <v>0.4963024865910872</v>
+        <v>0.4782343089452277</v>
       </c>
       <c r="T11">
-        <v>0.4963024865910872</v>
+        <v>0.5246271194480027</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>40.2613731190249</v>
+        <v>0.1037003333333333</v>
       </c>
       <c r="H12">
-        <v>40.2613731190249</v>
+        <v>0.311101</v>
       </c>
       <c r="I12">
-        <v>0.4268693297856042</v>
+        <v>0.001015122201704812</v>
       </c>
       <c r="J12">
-        <v>0.4268693297856042</v>
+        <v>0.001185210690619402</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.88440375340634</v>
+        <v>3.676435666666666</v>
       </c>
       <c r="N12">
-        <v>2.88440375340634</v>
+        <v>11.029307</v>
       </c>
       <c r="O12">
-        <v>0.0452549631030352</v>
+        <v>0.05596928005870617</v>
       </c>
       <c r="P12">
-        <v>0.0452549631030352</v>
+        <v>0.07888124434163156</v>
       </c>
       <c r="Q12">
-        <v>116.1300557418085</v>
+        <v>0.3812476041118889</v>
       </c>
       <c r="R12">
-        <v>116.1300557418085</v>
+        <v>3.431228437007</v>
       </c>
       <c r="S12">
-        <v>0.01931795576926488</v>
+        <v>5.681565880102703E-05</v>
       </c>
       <c r="T12">
-        <v>0.01931795576926488</v>
+        <v>9.34908940830629E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>40.2613731190249</v>
+        <v>0.1037003333333333</v>
       </c>
       <c r="H13">
-        <v>40.2613731190249</v>
+        <v>0.311101</v>
       </c>
       <c r="I13">
-        <v>0.4268693297856042</v>
+        <v>0.001015122201704812</v>
       </c>
       <c r="J13">
-        <v>0.4268693297856042</v>
+        <v>0.001185210690619402</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.29197669643</v>
+        <v>3.794922333333334</v>
       </c>
       <c r="N13">
-        <v>3.29197669643</v>
+        <v>11.384767</v>
       </c>
       <c r="O13">
-        <v>0.05164959439435457</v>
+        <v>0.05777309604548284</v>
       </c>
       <c r="P13">
-        <v>0.05164959439435457</v>
+        <v>0.08142348268114613</v>
       </c>
       <c r="Q13">
-        <v>132.5395020741032</v>
+        <v>0.3935347109407778</v>
       </c>
       <c r="R13">
-        <v>132.5395020741032</v>
+        <v>3.541812398467</v>
       </c>
       <c r="S13">
-        <v>0.02204762774281644</v>
+        <v>5.86467524569941E-05</v>
       </c>
       <c r="T13">
-        <v>0.02204762774281644</v>
+        <v>9.65039821411581E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>40.2613731190249</v>
+        <v>0.1037003333333333</v>
       </c>
       <c r="H14">
-        <v>40.2613731190249</v>
+        <v>0.311101</v>
       </c>
       <c r="I14">
-        <v>0.4268693297856042</v>
+        <v>0.001015122201704812</v>
       </c>
       <c r="J14">
-        <v>0.4268693297856042</v>
+        <v>0.001185210690619402</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.342201462243654</v>
+        <v>0.477427</v>
       </c>
       <c r="N14">
-        <v>0.342201462243654</v>
+        <v>1.432281</v>
       </c>
       <c r="O14">
-        <v>0.005368982941224049</v>
+        <v>0.007268247806663079</v>
       </c>
       <c r="P14">
-        <v>0.005368982941224049</v>
+        <v>0.01024362704990227</v>
       </c>
       <c r="Q14">
-        <v>13.77750075326767</v>
+        <v>0.04950933904233334</v>
       </c>
       <c r="R14">
-        <v>13.77750075326767</v>
+        <v>0.445584051381</v>
       </c>
       <c r="S14">
-        <v>0.002291854149750652</v>
+        <v>7.378159716035995E-06</v>
       </c>
       <c r="T14">
-        <v>0.002291854149750652</v>
+        <v>1.214085629026225E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>40.2613731190249</v>
+        <v>0.1037003333333333</v>
       </c>
       <c r="H15">
-        <v>40.2613731190249</v>
+        <v>0.311101</v>
       </c>
       <c r="I15">
-        <v>0.4268693297856042</v>
+        <v>0.001015122201704812</v>
       </c>
       <c r="J15">
-        <v>0.4268693297856042</v>
+        <v>0.001185210690619402</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.208113116433968</v>
+        <v>0.4995396666666667</v>
       </c>
       <c r="N15">
-        <v>0.208113116433968</v>
+        <v>1.498619</v>
       </c>
       <c r="O15">
-        <v>0.00326519870678802</v>
+        <v>0.007604886373395734</v>
       </c>
       <c r="P15">
-        <v>0.00326519870678802</v>
+        <v>0.01071807426468513</v>
       </c>
       <c r="Q15">
-        <v>8.378919831711059</v>
+        <v>0.05180242994655556</v>
       </c>
       <c r="R15">
-        <v>8.378919831711059</v>
+        <v>0.466221869519</v>
       </c>
       <c r="S15">
-        <v>0.001393813183583423</v>
+        <v>7.719888999076401E-06</v>
       </c>
       <c r="T15">
-        <v>0.001393813183583423</v>
+        <v>1.27031762013575E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1037003333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.311101</v>
+      </c>
+      <c r="I16">
+        <v>0.001015122201704812</v>
+      </c>
+      <c r="J16">
+        <v>0.001185210690619402</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>57.23834600000001</v>
+      </c>
+      <c r="N16">
+        <v>114.476692</v>
+      </c>
+      <c r="O16">
+        <v>0.8713844897157522</v>
+      </c>
+      <c r="P16">
+        <v>0.8187335716626348</v>
+      </c>
+      <c r="Q16">
+        <v>5.935635559648667</v>
+      </c>
+      <c r="R16">
+        <v>35.61381335789201</v>
+      </c>
+      <c r="S16">
+        <v>0.0008845617417316784</v>
+      </c>
+      <c r="T16">
+        <v>0.0009703717819035608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03667633333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.110029</v>
+      </c>
+      <c r="I17">
+        <v>0.0003590244992185134</v>
+      </c>
+      <c r="J17">
+        <v>0.0004191807389823952</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.676435666666666</v>
+      </c>
+      <c r="N17">
+        <v>11.029307</v>
+      </c>
+      <c r="O17">
+        <v>0.05596928005870617</v>
+      </c>
+      <c r="P17">
+        <v>0.07888124434163156</v>
+      </c>
+      <c r="Q17">
+        <v>0.1348381799892222</v>
+      </c>
+      <c r="R17">
+        <v>1.213543619903</v>
+      </c>
+      <c r="S17">
+        <v>2.009434274469771E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.3065498294976E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.03667633333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.110029</v>
+      </c>
+      <c r="I18">
+        <v>0.0003590244992185134</v>
+      </c>
+      <c r="J18">
+        <v>0.0004191807389823952</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.794922333333334</v>
+      </c>
+      <c r="N18">
+        <v>11.384767</v>
+      </c>
+      <c r="O18">
+        <v>0.05777309604548284</v>
+      </c>
+      <c r="P18">
+        <v>0.08142348268114613</v>
+      </c>
+      <c r="Q18">
+        <v>0.1391838364714444</v>
+      </c>
+      <c r="R18">
+        <v>1.252654528243</v>
+      </c>
+      <c r="S18">
+        <v>2.074195687603255E-05</v>
+      </c>
+      <c r="T18">
+        <v>3.41311556408031E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03667633333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.110029</v>
+      </c>
+      <c r="I19">
+        <v>0.0003590244992185134</v>
+      </c>
+      <c r="J19">
+        <v>0.0004191807389823952</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.477427</v>
+      </c>
+      <c r="N19">
+        <v>1.432281</v>
+      </c>
+      <c r="O19">
+        <v>0.007268247806663079</v>
+      </c>
+      <c r="P19">
+        <v>0.01024362704990227</v>
+      </c>
+      <c r="Q19">
+        <v>0.01751027179433333</v>
+      </c>
+      <c r="R19">
+        <v>0.157592446149</v>
+      </c>
+      <c r="S19">
+        <v>2.60947902898327E-06</v>
+      </c>
+      <c r="T19">
+        <v>4.293931156638086E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.03667633333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.110029</v>
+      </c>
+      <c r="I20">
+        <v>0.0003590244992185134</v>
+      </c>
+      <c r="J20">
+        <v>0.0004191807389823952</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4995396666666667</v>
+      </c>
+      <c r="N20">
+        <v>1.498619</v>
+      </c>
+      <c r="O20">
+        <v>0.007604886373395734</v>
+      </c>
+      <c r="P20">
+        <v>0.01071807426468513</v>
+      </c>
+      <c r="Q20">
+        <v>0.01832128332788889</v>
+      </c>
+      <c r="R20">
+        <v>0.164891549951</v>
+      </c>
+      <c r="S20">
+        <v>2.7303405218221E-06</v>
+      </c>
+      <c r="T20">
+        <v>4.492810290738905E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.03667633333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.110029</v>
+      </c>
+      <c r="I21">
+        <v>0.0003590244992185134</v>
+      </c>
+      <c r="J21">
+        <v>0.0004191807389823952</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>57.23834600000001</v>
+      </c>
+      <c r="N21">
+        <v>114.476692</v>
+      </c>
+      <c r="O21">
+        <v>0.8713844897157522</v>
+      </c>
+      <c r="P21">
+        <v>0.8187335716626348</v>
+      </c>
+      <c r="Q21">
+        <v>2.099292657344667</v>
+      </c>
+      <c r="R21">
+        <v>12.595755944068</v>
+      </c>
+      <c r="S21">
+        <v>0.0003128483800469777</v>
+      </c>
+      <c r="T21">
+        <v>0.0003431973435992391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>43.980731</v>
+      </c>
+      <c r="H22">
+        <v>87.961462</v>
+      </c>
+      <c r="I22">
+        <v>0.4305272225287646</v>
+      </c>
+      <c r="J22">
+        <v>0.335109386099409</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.676435666666666</v>
+      </c>
+      <c r="N22">
+        <v>11.029307</v>
+      </c>
+      <c r="O22">
+        <v>0.05596928005870617</v>
+      </c>
+      <c r="P22">
+        <v>0.07888124434163156</v>
+      </c>
+      <c r="Q22">
+        <v>161.6923280944723</v>
+      </c>
+      <c r="R22">
+        <v>970.1539685668339</v>
+      </c>
+      <c r="S22">
+        <v>0.02409629869060934</v>
+      </c>
+      <c r="T22">
+        <v>0.02643384536608163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>43.980731</v>
+      </c>
+      <c r="H23">
+        <v>87.961462</v>
+      </c>
+      <c r="I23">
+        <v>0.4305272225287646</v>
+      </c>
+      <c r="J23">
+        <v>0.335109386099409</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.794922333333334</v>
+      </c>
+      <c r="N23">
+        <v>11.384767</v>
+      </c>
+      <c r="O23">
+        <v>0.05777309604548284</v>
+      </c>
+      <c r="P23">
+        <v>0.08142348268114613</v>
+      </c>
+      <c r="Q23">
+        <v>166.9034583082257</v>
+      </c>
+      <c r="R23">
+        <v>1001.420749849354</v>
+      </c>
+      <c r="S23">
+        <v>0.02487289057734928</v>
+      </c>
+      <c r="T23">
+        <v>0.02728577329535474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>40.2613731190249</v>
-      </c>
-      <c r="H16">
-        <v>40.2613731190249</v>
-      </c>
-      <c r="I16">
-        <v>0.4268693297856042</v>
-      </c>
-      <c r="J16">
-        <v>0.4268693297856042</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>57.0100435660842</v>
-      </c>
-      <c r="N16">
-        <v>57.0100435660842</v>
-      </c>
-      <c r="O16">
-        <v>0.8944612608545981</v>
-      </c>
-      <c r="P16">
-        <v>0.8944612608545981</v>
-      </c>
-      <c r="Q16">
-        <v>2295.302635545981</v>
-      </c>
-      <c r="R16">
-        <v>2295.302635545981</v>
-      </c>
-      <c r="S16">
-        <v>0.3818180789401888</v>
-      </c>
-      <c r="T16">
-        <v>0.3818180789401888</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>43.980731</v>
+      </c>
+      <c r="H24">
+        <v>87.961462</v>
+      </c>
+      <c r="I24">
+        <v>0.4305272225287646</v>
+      </c>
+      <c r="J24">
+        <v>0.335109386099409</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.477427</v>
+      </c>
+      <c r="N24">
+        <v>1.432281</v>
+      </c>
+      <c r="O24">
+        <v>0.007268247806663079</v>
+      </c>
+      <c r="P24">
+        <v>0.01024362704990227</v>
+      </c>
+      <c r="Q24">
+        <v>20.997588459137</v>
+      </c>
+      <c r="R24">
+        <v>125.985530754822</v>
+      </c>
+      <c r="S24">
+        <v>0.003129178540853441</v>
+      </c>
+      <c r="T24">
+        <v>0.003432735572124049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>43.980731</v>
+      </c>
+      <c r="H25">
+        <v>87.961462</v>
+      </c>
+      <c r="I25">
+        <v>0.4305272225287646</v>
+      </c>
+      <c r="J25">
+        <v>0.335109386099409</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4995396666666667</v>
+      </c>
+      <c r="N25">
+        <v>1.498619</v>
+      </c>
+      <c r="O25">
+        <v>0.007604886373395734</v>
+      </c>
+      <c r="P25">
+        <v>0.01071807426468513</v>
+      </c>
+      <c r="Q25">
+        <v>21.97011970349633</v>
+      </c>
+      <c r="R25">
+        <v>131.820718220978</v>
+      </c>
+      <c r="S25">
+        <v>0.003274110607984915</v>
+      </c>
+      <c r="T25">
+        <v>0.003591727287006509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>43.980731</v>
+      </c>
+      <c r="H26">
+        <v>87.961462</v>
+      </c>
+      <c r="I26">
+        <v>0.4305272225287646</v>
+      </c>
+      <c r="J26">
+        <v>0.335109386099409</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>57.23834600000001</v>
+      </c>
+      <c r="N26">
+        <v>114.476692</v>
+      </c>
+      <c r="O26">
+        <v>0.8713844897157522</v>
+      </c>
+      <c r="P26">
+        <v>0.8187335716626348</v>
+      </c>
+      <c r="Q26">
+        <v>2517.384298310926</v>
+      </c>
+      <c r="R26">
+        <v>10069.5371932437</v>
+      </c>
+      <c r="S26">
+        <v>0.3751547441119677</v>
+      </c>
+      <c r="T26">
+        <v>0.2743653045788421</v>
       </c>
     </row>
   </sheetData>
